--- a/DATA_goal/Junction_Flooding_223.xlsx
+++ b/DATA_goal/Junction_Flooding_223.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41655.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>2.18</v>
+        <v>0.22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>1.58</v>
+        <v>0.16</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.7</v>
+        <v>0.37</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>5.45</v>
+        <v>0.54</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>2.54</v>
+        <v>0.25</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="W2" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.38</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.13</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.53</v>
-      </c>
       <c r="X2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.05</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>1.42</v>
+        <v>0.14</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.3</v>
+        <v>0.03</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.05</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>2.89</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41655.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>23.31</v>
+        <v>2.33</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.44</v>
+        <v>1.74</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>49.82</v>
+        <v>4.98</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>41.9</v>
+        <v>4.19</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.38</v>
+        <v>1.74</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>61.6</v>
+        <v>6.16</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>28.77</v>
+        <v>2.88</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>18.09</v>
+        <v>1.81</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.23</v>
+        <v>2.02</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>20.91</v>
+        <v>2.09</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.76</v>
+        <v>0.58</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>18.71</v>
+        <v>1.87</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>25.63</v>
+        <v>2.56</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.88</v>
+        <v>1.49</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.82</v>
+        <v>0.08</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>265.71</v>
+        <v>26.57</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49.39</v>
+        <v>4.94</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.58</v>
+        <v>1.66</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.49</v>
+        <v>3.35</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.86</v>
+        <v>1.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>31.25</v>
+        <v>3.12</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.41</v>
+        <v>1.44</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>12.93</v>
+        <v>1.29</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.86</v>
+        <v>1.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.38</v>
+        <v>2.04</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.22</v>
+        <v>5.52</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>21.22</v>
+        <v>2.12</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41655.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>20.6</v>
+        <v>2.06</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>15.46</v>
+        <v>1.55</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.52</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>44.27</v>
+        <v>4.43</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>37.03</v>
+        <v>3.7</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>15.57</v>
+        <v>1.56</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>63.04</v>
+        <v>6.3</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>25.21</v>
+        <v>2.52</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>11.61</v>
+        <v>1.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>16.16</v>
+        <v>1.62</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>17.94</v>
+        <v>1.79</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>18.61</v>
+        <v>1.86</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>5.12</v>
+        <v>0.51</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>16.41</v>
+        <v>1.64</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>22.8</v>
+        <v>2.28</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>13.27</v>
+        <v>1.33</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.72</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>235.04</v>
+        <v>23.5</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>44.16</v>
+        <v>4.42</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>14.73</v>
+        <v>1.47</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>29.92</v>
+        <v>2.99</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>15.89</v>
+        <v>1.59</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>2.26</v>
+        <v>0.23</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>30.5</v>
+        <v>3.05</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>12.85</v>
+        <v>1.29</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>11.5</v>
+        <v>1.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>13.23</v>
+        <v>1.32</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>18.23</v>
+        <v>1.82</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>57.01</v>
+        <v>5.7</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>18.67</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41655.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>12.27</v>
+        <v>1.23</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>9.23</v>
+        <v>0.92</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.27</v>
+        <v>0.03</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>26.31</v>
+        <v>2.63</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>22.07</v>
+        <v>2.21</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>9.19</v>
+        <v>0.92</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>40.12</v>
+        <v>4.01</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>15.04</v>
+        <v>1.5</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>6.97</v>
+        <v>0.7</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>9.539999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>10.69</v>
+        <v>1.07</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>11.02</v>
+        <v>1.1</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>3.04</v>
+        <v>0.3</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>9.83</v>
+        <v>0.98</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>13.57</v>
+        <v>1.36</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>7.92</v>
+        <v>0.79</v>
       </c>
       <c r="R5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>136.7</v>
+        <v>13.67</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>26.25</v>
+        <v>2.63</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>8.76</v>
+        <v>0.88</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>17.78</v>
+        <v>1.78</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>9.449999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.35</v>
+        <v>0.13</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>18.91</v>
+        <v>1.89</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>7.63</v>
+        <v>0.76</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>7.83</v>
+        <v>0.78</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>10.76</v>
+        <v>1.08</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>36.23</v>
+        <v>3.62</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>4.92</v>
+        <v>0.49</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>11.13</v>
+        <v>1.11</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41655.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>7.04</v>
+        <v>0.7</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.2</v>
+        <v>0.02</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>20.05</v>
+        <v>2.01</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>16.82</v>
+        <v>1.68</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>6.99</v>
+        <v>0.7</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>30.21</v>
+        <v>3.02</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>11.46</v>
+        <v>1.15</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>5.32</v>
+        <v>0.53</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>7.25</v>
+        <v>0.73</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>8.390000000000001</v>
+        <v>0.84</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>2.32</v>
+        <v>0.23</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>7.5</v>
+        <v>0.75</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>10.34</v>
+        <v>1.03</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>6.05</v>
+        <v>0.61</v>
       </c>
       <c r="R6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.35</v>
+        <v>0.03</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>102.4</v>
+        <v>10.24</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>19.98</v>
+        <v>2</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>6.68</v>
+        <v>0.67</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>13.52</v>
+        <v>1.35</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>14.24</v>
+        <v>1.42</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>5.81</v>
+        <v>0.58</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>5.96</v>
+        <v>0.6</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>27.2</v>
+        <v>2.72</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>3.74</v>
+        <v>0.37</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>8.48</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41655.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>1.36</v>
+        <v>0.14</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>1.03</v>
+        <v>0.1</v>
       </c>
       <c r="D7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>2.69</v>
+        <v>0.27</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>9.33</v>
+        <v>0.93</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>1.75</v>
+        <v>0.17</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>1.17</v>
+        <v>0.12</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>1.05</v>
+        <v>0.1</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>0.34</v>
+        <v>0.03</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>1.21</v>
+        <v>0.12</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>1.57</v>
+        <v>0.16</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="R7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="S7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="V7" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="T7" s="4" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>2.93</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.92</v>
-      </c>
       <c r="W7" s="4" t="n">
-        <v>2.14</v>
+        <v>0.21</v>
       </c>
       <c r="X7" s="4" t="n">
-        <v>1.1</v>
+        <v>0.11</v>
       </c>
       <c r="Y7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="Z7" s="4" t="n">
-        <v>4.02</v>
+        <v>0.4</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>0.74</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>0.77</v>
+        <v>0.08</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>0.7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>0.91</v>
+        <v>0.09</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>8.67</v>
+        <v>0.87</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>1.26</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41655.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>20.27</v>
+        <v>2.03</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>15.24</v>
+        <v>1.52</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.63</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>43.87</v>
+        <v>4.39</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>36.46</v>
+        <v>3.65</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>56.18</v>
+        <v>5.62</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>24.63</v>
+        <v>2.46</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>11.17</v>
+        <v>1.12</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>17.68</v>
+        <v>1.77</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>18.54</v>
+        <v>1.85</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>5.07</v>
+        <v>0.51</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>15.99</v>
+        <v>1.6</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>22.56</v>
+        <v>2.26</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>13.13</v>
+        <v>1.31</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.65</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>232.9</v>
+        <v>23.29</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>43.81</v>
+        <v>4.38</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>14.59</v>
+        <v>1.46</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>29.67</v>
+        <v>2.97</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>15.69</v>
+        <v>1.57</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>2.11</v>
+        <v>0.21</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>27.98</v>
+        <v>2.8</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>12.83</v>
+        <v>1.28</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>11.35</v>
+        <v>1.13</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>13.19</v>
+        <v>1.32</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>18.32</v>
+        <v>1.83</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>50.48</v>
+        <v>5.05</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>8.26</v>
+        <v>0.83</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>18.33</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41655.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>8.15</v>
+        <v>0.82</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>6.14</v>
+        <v>0.61</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>17.54</v>
+        <v>1.75</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>14.66</v>
+        <v>1.47</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>6.18</v>
+        <v>0.62</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>28.58</v>
+        <v>2.86</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>9.94</v>
+        <v>0.99</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>6.4</v>
+        <v>0.64</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>7.11</v>
+        <v>0.71</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>7.37</v>
+        <v>0.74</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>2.03</v>
+        <v>0.2</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>6.5</v>
+        <v>0.65</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>9.08</v>
+        <v>0.91</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>5.29</v>
+        <v>0.53</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>88.75</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>17.67</v>
+        <v>1.77</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.85</v>
+        <v>0.58</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>11.97</v>
+        <v>1.2</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>6.31</v>
+        <v>0.63</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.86</v>
+        <v>0.09</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>5.11</v>
+        <v>0.51</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.57</v>
+        <v>0.46</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>5.23</v>
+        <v>0.52</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>7.23</v>
+        <v>0.72</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>26.11</v>
+        <v>2.61</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>3.28</v>
+        <v>0.33</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>7.38</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41655.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>16.5</v>
+        <v>1.65</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>12.41</v>
+        <v>1.24</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.51</v>
+        <v>0.05</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>35.73</v>
+        <v>3.57</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>29.68</v>
+        <v>2.97</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>48.58</v>
+        <v>4.86</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>20.04</v>
+        <v>2</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.09</v>
+        <v>0.91</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>13.21</v>
+        <v>1.32</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>14.4</v>
+        <v>1.44</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>15.1</v>
+        <v>1.51</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.13</v>
+        <v>0.41</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.02</v>
+        <v>1.3</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>18.39</v>
+        <v>1.84</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>10.71</v>
+        <v>1.07</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.53</v>
+        <v>0.05</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>188.3</v>
+        <v>18.83</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>35.75</v>
+        <v>3.57</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>11.89</v>
+        <v>1.19</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>24.2</v>
+        <v>2.42</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.71</v>
+        <v>0.17</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>23.74</v>
+        <v>2.37</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.45</v>
+        <v>1.05</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>10.75</v>
+        <v>1.07</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>43.8</v>
+        <v>4.38</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>6.72</v>
+        <v>0.67</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>14.92</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_223.xlsx
+++ b/DATA_goal/Junction_Flooding_223.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH11"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="6" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="7" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="7" customWidth="1" min="6" max="6"/>
     <col width="6" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
     <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="6" customWidth="1" min="11" max="11"/>
-    <col width="6" customWidth="1" min="12" max="12"/>
-    <col width="6" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="11" max="11"/>
+    <col width="7" customWidth="1" min="12" max="12"/>
+    <col width="7" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="6" customWidth="1" min="15" max="15"/>
-    <col width="6" customWidth="1" min="16" max="16"/>
-    <col width="6" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="7" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="20" max="20"/>
     <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="6" customWidth="1" min="22" max="22"/>
-    <col width="6" customWidth="1" min="23" max="23"/>
-    <col width="6" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="22" max="22"/>
+    <col width="7" customWidth="1" min="23" max="23"/>
+    <col width="7" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="6" customWidth="1" min="27" max="27"/>
+    <col width="7" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="6" customWidth="1" min="29" max="29"/>
-    <col width="6" customWidth="1" min="30" max="30"/>
-    <col width="5" customWidth="1" min="31" max="31"/>
-    <col width="6" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="29" max="29"/>
+    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="31" max="31"/>
+    <col width="7" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="6" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -652,1042 +652,522 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>41655.34027777778</v>
+        <v>44904.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.22</v>
+        <v>0.09</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.25</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.16</v>
+        <v>0.13</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.29</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.27</v>
+        <v>0.15</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.54</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.25</v>
+        <v>0.04</v>
       </c>
       <c r="K2" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="L2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="O2" s="4" t="n">
+      <c r="T2" s="4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="U2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="P2" s="4" t="n">
+      <c r="V2" s="4" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="W2" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="Q2" s="4" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4" t="n">
+      <c r="X2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Y2" s="4" t="n">
         <v>0.01</v>
       </c>
-      <c r="T2" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="U2" s="4" t="n">
+      <c r="Z2" s="4" t="n">
         <v>0.09</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="AA2" s="4" t="n">
         <v>0.07000000000000001</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>0.03</v>
       </c>
       <c r="AB2" s="4" t="n">
         <v>0.05</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.08</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.03</v>
+        <v>0.31</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.29</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>41655.34722222222</v>
+        <v>44904.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>4.84</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="O3" s="4" t="n">
         <v>1.74</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>4.98</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>4.19</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>6.16</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>2.09</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.87</v>
-      </c>
       <c r="P3" s="4" t="n">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.49</v>
+        <v>1.46</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0</v>
+        <v>0.08</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.05</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.57</v>
+        <v>26.11</v>
       </c>
       <c r="U3" s="4" t="n">
         <v>4.94</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.79</v>
+        <v>1.72</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.27</v>
+        <v>0.23</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.12</v>
+        <v>3.11</v>
       </c>
       <c r="AA3" s="4" t="n">
         <v>1.44</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AC3" s="4" t="n">
         <v>1.49</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.04</v>
+        <v>2.06</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.52</v>
+        <v>5.5</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.04</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.12</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>41655.35416666666</v>
+        <v>44904.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.06</v>
+        <v>0.29</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.55</v>
+        <v>0.25</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>4.43</v>
+        <v>0.58</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>3.7</v>
+        <v>0.53</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.56</v>
+        <v>0.18</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>6.3</v>
+        <v>1.57</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>2.52</v>
+        <v>0.32</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.16</v>
+        <v>0.16</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.62</v>
+        <v>0.2</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>1.79</v>
+        <v>0.31</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>1.86</v>
+        <v>0.29</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.51</v>
+        <v>0.09</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>1.64</v>
+        <v>0.21</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>2.28</v>
+        <v>0.36</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.33</v>
+        <v>0.18</v>
       </c>
       <c r="R4" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>23.5</v>
+        <v>2.68</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>4.42</v>
+        <v>0.68</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.47</v>
+        <v>0.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.99</v>
+        <v>0.45</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.59</v>
+        <v>0.21</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.23</v>
+        <v>0.03</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>3.05</v>
+        <v>0.74</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.29</v>
+        <v>0.18</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.15</v>
+        <v>0.15</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.32</v>
+        <v>0.19</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.82</v>
+        <v>0.26</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>5.7</v>
+        <v>1.55</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.83</v>
+        <v>0.19</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.87</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>41655.36111111111</v>
+        <v>44904.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>1.23</v>
+        <v>0.67</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.92</v>
+        <v>0.53</v>
       </c>
       <c r="D5" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="F5" s="4" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="G5" s="4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.03</v>
       </c>
-      <c r="E5" s="4" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="F5" s="4" t="n">
-        <v>2.21</v>
-      </c>
-      <c r="G5" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="H5" s="4" t="n">
-        <v>4.01</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="J5" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="K5" s="4" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.79</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.04</v>
+        <v>0.01</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>13.67</v>
+        <v>7.26</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.63</v>
+        <v>1.47</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.5</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.78</v>
+        <v>0.97</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.95</v>
+        <v>0.5</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.89</v>
+        <v>0.97</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.43</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.78</v>
+        <v>0.45</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>1.08</v>
+        <v>0.61</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>3.62</v>
+        <v>1.83</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.49</v>
+        <v>0.33</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>1.11</v>
+        <v>0.59</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>41655.36805555555</v>
+        <v>44904.53471064815</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>15.88</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.7</v>
+        <v>12.11</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>0.02</v>
+        <v>0.49</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.01</v>
+        <v>34.21</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.68</v>
+        <v>28.57</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>0.7</v>
+        <v>12.2</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>3.02</v>
+        <v>45.45</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.15</v>
+        <v>19</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>0.53</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>0.73</v>
+        <v>12.65</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>0.82</v>
+        <v>14.13</v>
       </c>
       <c r="M6" s="4" t="n">
-        <v>0.84</v>
+        <v>14.77</v>
       </c>
       <c r="N6" s="4" t="n">
-        <v>0.23</v>
+        <v>4.05</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>0.75</v>
+        <v>12.28</v>
       </c>
       <c r="P6" s="4" t="n">
-        <v>1.03</v>
+        <v>17.88</v>
       </c>
       <c r="Q6" s="4" t="n">
-        <v>0.61</v>
+        <v>10.27</v>
       </c>
       <c r="R6" s="4" t="n">
-        <v>0</v>
+        <v>0.37</v>
       </c>
       <c r="S6" s="4" t="n">
-        <v>0.03</v>
+        <v>0.39</v>
       </c>
       <c r="T6" s="4" t="n">
-        <v>10.24</v>
+        <v>181.36</v>
       </c>
       <c r="U6" s="4" t="n">
-        <v>2</v>
+        <v>34.64</v>
       </c>
       <c r="V6" s="4" t="n">
-        <v>0.67</v>
+        <v>11.55</v>
       </c>
       <c r="W6" s="4" t="n">
-        <v>1.35</v>
+        <v>23.32</v>
       </c>
       <c r="X6" s="4" t="n">
-        <v>0.72</v>
+        <v>12.19</v>
       </c>
       <c r="Y6" s="4" t="n">
-        <v>0.1</v>
+        <v>1.62</v>
       </c>
       <c r="Z6" s="4" t="n">
-        <v>1.42</v>
+        <v>22.69</v>
       </c>
       <c r="AA6" s="4" t="n">
-        <v>0.58</v>
+        <v>10.11</v>
       </c>
       <c r="AB6" s="4" t="n">
-        <v>0.53</v>
+        <v>8.76</v>
       </c>
       <c r="AC6" s="4" t="n">
-        <v>0.6</v>
+        <v>10.48</v>
       </c>
       <c r="AD6" s="4" t="n">
-        <v>0.82</v>
+        <v>14.51</v>
       </c>
       <c r="AE6" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF6" s="4" t="n">
-        <v>2.72</v>
+        <v>41.39</v>
       </c>
       <c r="AG6" s="4" t="n">
-        <v>0.37</v>
+        <v>6.94</v>
       </c>
       <c r="AH6" s="4" t="n">
-        <v>0.85</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="n">
-        <v>41655.375</v>
-      </c>
-      <c r="B7" s="4" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="C7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="4" t="n">
-        <v>0.27</v>
-      </c>
-      <c r="F7" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="G7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="H7" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="J7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="K7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="L7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="M7" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="N7" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="O7" s="4" t="n">
-        <v>0.12</v>
-      </c>
-      <c r="P7" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="Q7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="R7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S7" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>0.29</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>0.11</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="Z7" s="4" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="AA7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AB7" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="AC7" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
-      <c r="AD7" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="AE7" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF7" s="4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="AG7" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="AH7" s="4" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="3" t="n">
-        <v>41655.38194444445</v>
-      </c>
-      <c r="B8" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="C8" s="4" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="E8" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="F8" s="4" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="G8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="H8" s="4" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>2.46</v>
-      </c>
-      <c r="J8" s="4" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="K8" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="L8" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="M8" s="4" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="N8" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="O8" s="4" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="P8" s="4" t="n">
-        <v>2.26</v>
-      </c>
-      <c r="Q8" s="4" t="n">
-        <v>1.31</v>
-      </c>
-      <c r="R8" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S8" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="T8" s="4" t="n">
-        <v>23.29</v>
-      </c>
-      <c r="U8" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="V8" s="4" t="n">
-        <v>1.46</v>
-      </c>
-      <c r="W8" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="X8" s="4" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y8" s="4" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="Z8" s="4" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="AA8" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="AB8" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="AC8" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AD8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="AE8" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="4" t="n">
-        <v>5.05</v>
-      </c>
-      <c r="AG8" s="4" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="AH8" s="4" t="n">
-        <v>1.83</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="n">
-        <v>41655.38888888889</v>
-      </c>
-      <c r="B9" s="4" t="n">
-        <v>0.82</v>
-      </c>
-      <c r="C9" s="4" t="n">
-        <v>0.61</v>
-      </c>
-      <c r="D9" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="E9" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="F9" s="4" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="G9" s="4" t="n">
-        <v>0.62</v>
-      </c>
-      <c r="H9" s="4" t="n">
-        <v>2.86</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.99</v>
-      </c>
-      <c r="J9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="K9" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="L9" s="4" t="n">
-        <v>0.71</v>
-      </c>
-      <c r="M9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="N9" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="O9" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="P9" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="Q9" s="4" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="R9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="T9" s="4" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="U9" s="4" t="n">
-        <v>1.77</v>
-      </c>
-      <c r="V9" s="4" t="n">
-        <v>0.58</v>
-      </c>
-      <c r="W9" s="4" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="X9" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="Y9" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="Z9" s="4" t="n">
-        <v>1.34</v>
-      </c>
-      <c r="AA9" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="AB9" s="4" t="n">
-        <v>0.46</v>
-      </c>
-      <c r="AC9" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="AD9" s="4" t="n">
-        <v>0.72</v>
-      </c>
-      <c r="AE9" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="4" t="n">
-        <v>2.61</v>
-      </c>
-      <c r="AG9" s="4" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="AH9" s="4" t="n">
-        <v>0.74</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="3" t="n">
-        <v>41655.39583333334</v>
-      </c>
-      <c r="B10" s="4" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="C10" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E10" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="F10" s="4" t="n">
-        <v>2.97</v>
-      </c>
-      <c r="G10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="H10" s="4" t="n">
-        <v>4.86</v>
-      </c>
-      <c r="I10" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J10" s="4" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="K10" s="4" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="L10" s="4" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="M10" s="4" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="N10" s="4" t="n">
-        <v>0.41</v>
-      </c>
-      <c r="O10" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P10" s="4" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="Q10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="R10" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="S10" s="4" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="T10" s="4" t="n">
-        <v>18.83</v>
-      </c>
-      <c r="U10" s="4" t="n">
-        <v>3.57</v>
-      </c>
-      <c r="V10" s="4" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="W10" s="4" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="X10" s="4" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="Y10" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="Z10" s="4" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="AA10" s="4" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="AB10" s="4" t="n">
-        <v>0.92</v>
-      </c>
-      <c r="AC10" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="AD10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="AE10" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="4" t="n">
-        <v>4.38</v>
-      </c>
-      <c r="AG10" s="4" t="n">
-        <v>0.67</v>
-      </c>
-      <c r="AH10" s="4" t="n">
-        <v>1.49</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="n">
-        <v>41655.4027662037</v>
-      </c>
-      <c r="B11" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="C11" s="4" t="n">
-        <v>4.61</v>
-      </c>
-      <c r="D11" s="4" t="n">
-        <v>0.16</v>
-      </c>
-      <c r="E11" s="4" t="n">
-        <v>13.16</v>
-      </c>
-      <c r="F11" s="4" t="n">
-        <v>11</v>
-      </c>
-      <c r="G11" s="4" t="n">
-        <v>4.63</v>
-      </c>
-      <c r="H11" s="4" t="n">
-        <v>22.71</v>
-      </c>
-      <c r="I11" s="4" t="n">
-        <v>7.46</v>
-      </c>
-      <c r="J11" s="4" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="K11" s="4" t="n">
-        <v>4.79</v>
-      </c>
-      <c r="L11" s="4" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="M11" s="4" t="n">
-        <v>5.53</v>
-      </c>
-      <c r="N11" s="4" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="O11" s="4" t="n">
-        <v>4.88</v>
-      </c>
-      <c r="P11" s="4" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="Q11" s="4" t="n">
-        <v>3.98</v>
-      </c>
-      <c r="R11" s="4" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="S11" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T11" s="4" t="n">
-        <v>64.73999999999999</v>
-      </c>
-      <c r="U11" s="4" t="n">
-        <v>13.32</v>
-      </c>
-      <c r="V11" s="4" t="n">
-        <v>4.39</v>
-      </c>
-      <c r="W11" s="4" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="X11" s="4" t="n">
-        <v>4.75</v>
-      </c>
-      <c r="Y11" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="Z11" s="4" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="AA11" s="4" t="n">
-        <v>3.84</v>
-      </c>
-      <c r="AB11" s="4" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="AC11" s="4" t="n">
-        <v>3.92</v>
-      </c>
-      <c r="AD11" s="4" t="n">
-        <v>5.41</v>
-      </c>
-      <c r="AE11" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="4" t="n">
-        <v>20.8</v>
-      </c>
-      <c r="AG11" s="4" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="AH11" s="4" t="n">
-        <v>5.54</v>
+        <v>14.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_223.xlsx
+++ b/DATA_goal/Junction_Flooding_223.xlsx
@@ -448,10 +448,10 @@
     <col width="6" customWidth="1" min="4" max="4"/>
     <col width="7" customWidth="1" min="5" max="5"/>
     <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="7" max="7"/>
     <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="6" customWidth="1" min="9" max="9"/>
-    <col width="6" customWidth="1" min="10" max="10"/>
+    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="7" customWidth="1" min="10" max="10"/>
     <col width="7" customWidth="1" min="11" max="11"/>
     <col width="7" customWidth="1" min="12" max="12"/>
     <col width="7" customWidth="1" min="13" max="13"/>
@@ -469,12 +469,12 @@
     <col width="6" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
     <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="6" customWidth="1" min="28" max="28"/>
+    <col width="7" customWidth="1" min="28" max="28"/>
     <col width="7" customWidth="1" min="29" max="29"/>
     <col width="7" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
     <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
     <col width="7" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
@@ -655,103 +655,103 @@
         <v>44904.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.86</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>0.25</v>
+        <v>2.49</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.01</v>
+        <v>0.08</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>0.13</v>
+        <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>0.29</v>
+        <v>2.86</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>0.15</v>
+        <v>1.49</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.7</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.04</v>
+        <v>0.37</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>0.4</v>
+        <v>3.98</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>0.19</v>
+        <v>1.94</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.11</v>
+        <v>1.14</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>0.16</v>
+        <v>1.57</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.96</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>0.8</v>
+        <v>7.97</v>
       </c>
       <c r="U2" s="4" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="X2" s="4" t="n">
         <v>0.31</v>
       </c>
-      <c r="V2" s="4" t="n">
+      <c r="Y2" s="4" t="n">
         <v>0.1</v>
       </c>
-      <c r="W2" s="4" t="n">
-        <v>0.09</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>0.03</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.01</v>
-      </c>
       <c r="Z2" s="4" t="n">
-        <v>0.09</v>
+        <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.1</v>
+        <v>0.97</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.02</v>
+        <v>0.17</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>0.27</v>
+        <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.31</v>
+        <v>3.1</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.06</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44904.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>2.25</v>
+        <v>22.48</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.76</v>
+        <v>17.57</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.72</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>4.84</v>
+        <v>48.35</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>4.08</v>
+        <v>40.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.71</v>
+        <v>17.08</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>5.99</v>
+        <v>59.9</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>2.68</v>
+        <v>26.84</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>1.21</v>
+        <v>12.12</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>1.79</v>
+        <v>17.86</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>2.06</v>
+        <v>20.6</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>2.12</v>
+        <v>21.19</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>0.59</v>
+        <v>5.94</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>1.74</v>
+        <v>17.4</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2.55</v>
+        <v>25.47</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>1.46</v>
+        <v>14.58</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.05</v>
+        <v>0.49</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>26.11</v>
+        <v>261.14</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>4.94</v>
+        <v>49.36</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.65</v>
+        <v>16.47</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>3.3</v>
+        <v>33.02</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.72</v>
+        <v>17.2</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.23</v>
+        <v>2.3</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>3.11</v>
+        <v>31.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.38</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>1.24</v>
+        <v>12.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>1.49</v>
+        <v>14.89</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>2.06</v>
+        <v>20.58</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>5.5</v>
+        <v>55.04</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>2.01</v>
+        <v>20.06</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44904.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.25</v>
+        <v>2.54</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>0.58</v>
+        <v>5.78</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.53</v>
+        <v>5.28</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.81</v>
       </c>
       <c r="H4" s="4" t="n">
+        <v>15.74</v>
+      </c>
+      <c r="I4" s="4" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="J4" s="4" t="n">
         <v>1.57</v>
       </c>
-      <c r="I4" s="4" t="n">
-        <v>0.32</v>
-      </c>
-      <c r="J4" s="4" t="n">
-        <v>0.16</v>
-      </c>
       <c r="K4" s="4" t="n">
-        <v>0.2</v>
+        <v>1.99</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>0.31</v>
+        <v>3.05</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>0.29</v>
+        <v>2.87</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.09</v>
+        <v>0.89</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>0.36</v>
+        <v>3.58</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.84</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.04</v>
+        <v>0.4</v>
       </c>
       <c r="S4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>2.68</v>
+        <v>26.84</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>0.68</v>
+        <v>6.84</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>0.22</v>
+        <v>2.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>0.45</v>
+        <v>4.5</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>0.21</v>
+        <v>2.11</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.03</v>
+        <v>0.29</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>0.74</v>
+        <v>7.45</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.15</v>
+        <v>1.46</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.93</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>0.26</v>
+        <v>2.56</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>1.55</v>
+        <v>15.52</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.19</v>
+        <v>1.89</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>0.24</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44904.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.67</v>
+        <v>6.74</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.53</v>
+        <v>5.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.02</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>1.43</v>
+        <v>14.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.22</v>
+        <v>12.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.95</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>2</v>
+        <v>20.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.79</v>
+        <v>7.89</v>
       </c>
       <c r="J5" s="4" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>6.37</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>5.11</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>7.66</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.35</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.63</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.64</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.18</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>0.77</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.03</v>
-      </c>
       <c r="S5" s="4" t="n">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>7.26</v>
+        <v>72.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>1.47</v>
+        <v>14.66</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.5</v>
+        <v>4.98</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.5</v>
+        <v>5.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>0.97</v>
+        <v>9.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.43</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.36</v>
+        <v>3.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.45</v>
+        <v>4.47</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.12</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>1.83</v>
+        <v>18.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.33</v>
+        <v>3.29</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.59</v>
+        <v>5.91</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_223.xlsx
+++ b/DATA_goal/Junction_Flooding_223.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
-    <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="10" max="10"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
     <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="17" max="17"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
     <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
     <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="7" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="8" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,73 +655,73 @@
         <v>44904.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>0.86</v>
+        <v>0.861</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>2.49</v>
+        <v>2.491</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.08</v>
+        <v>0.076</v>
       </c>
       <c r="E2" s="4" t="n">
         <v>1.32</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>2.86</v>
+        <v>2.861</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>0</v>
+        <v>0.002</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>1.49</v>
+        <v>1.492</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>0.7</v>
+        <v>0.701</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>0.38</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0.37</v>
+        <v>0.367</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>3.98</v>
+        <v>3.983</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.94</v>
+        <v>1.944</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>1.14</v>
+        <v>1.138</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.723</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1.57</v>
+        <v>1.566</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0.64</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.96</v>
+        <v>0.961</v>
       </c>
       <c r="S2" s="4" t="n">
         <v>0</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>7.97</v>
+        <v>7.973</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>3.14</v>
+        <v>3.143</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W2" s="4" t="n">
         <v>0.92</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>0.31</v>
+        <v>0.309</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>0.1</v>
@@ -730,28 +730,28 @@
         <v>0.93</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>0.49</v>
+        <v>0.494</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.8070000000000001</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>0.97</v>
+        <v>0.966</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.17</v>
+        <v>0.167</v>
       </c>
       <c r="AF2" s="4" t="n">
         <v>2.71</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>3.1</v>
+        <v>3.101</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>0.61</v>
+        <v>0.612</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44904.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>22.48</v>
+        <v>22.477</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>17.57</v>
+        <v>17.569</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.72</v>
+        <v>0.716</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>48.35</v>
+        <v>48.351</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>40.77</v>
+        <v>40.771</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>17.08</v>
+        <v>17.078</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>59.9</v>
+        <v>59.903</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>26.84</v>
+        <v>26.835</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>12.12</v>
+        <v>12.125</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>17.86</v>
+        <v>17.857</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>20.6</v>
+        <v>20.605</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>21.19</v>
+        <v>21.191</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>5.94</v>
+        <v>5.944</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>17.4</v>
+        <v>17.399</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>25.47</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>14.58</v>
+        <v>14.576</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>0.77</v>
+        <v>0.771</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>0.49</v>
+        <v>0.487</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>261.14</v>
+        <v>261.141</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>49.36</v>
+        <v>49.355</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>16.47</v>
+        <v>16.466</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>33.02</v>
+        <v>33.016</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>17.2</v>
+        <v>17.204</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.3</v>
+        <v>2.297</v>
       </c>
       <c r="Z3" s="4" t="n">
         <v>31.06</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>14.38</v>
+        <v>14.377</v>
       </c>
       <c r="AB3" s="4" t="n">
         <v>12.42</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>14.89</v>
+        <v>14.887</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>20.58</v>
+        <v>20.582</v>
       </c>
       <c r="AE3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>55.04</v>
+        <v>55.037</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>10.39</v>
+        <v>10.395</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>20.06</v>
+        <v>20.056</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44904.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>2.87</v>
+        <v>2.871</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>2.54</v>
+        <v>2.537</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.05</v>
+        <v>0.049</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>5.78</v>
+        <v>5.784</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>5.28</v>
+        <v>5.283</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.81</v>
+        <v>1.812</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>15.74</v>
+        <v>15.738</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>3.15</v>
+        <v>3.155</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>1.57</v>
+        <v>1.568</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>1.99</v>
+        <v>1.986</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>3.05</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>2.87</v>
+        <v>2.867</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>0.89</v>
+        <v>0.889</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>2.06</v>
+        <v>2.061</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>3.58</v>
+        <v>3.583</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>1.84</v>
+        <v>1.842</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.4</v>
+        <v>0.398</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0</v>
+        <v>0.004</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>26.84</v>
+        <v>26.839</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>6.84</v>
+        <v>6.844</v>
       </c>
       <c r="V4" s="4" t="n">
         <v>2.22</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>4.5</v>
+        <v>4.497</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>2.11</v>
+        <v>2.111</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.29</v>
+        <v>0.285</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>7.45</v>
+        <v>7.446</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>1.83</v>
+        <v>1.828</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>1.46</v>
+        <v>1.456</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>1.93</v>
+        <v>1.934</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>2.56</v>
+        <v>2.563</v>
       </c>
       <c r="AE4" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>15.52</v>
+        <v>15.519</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>1.89</v>
+        <v>1.891</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>2.39</v>
+        <v>2.387</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>5.91</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44904.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.36</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.64</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.39</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_223.xlsx
+++ b/DATA_goal/Junction_Flooding_223.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44904.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.74</v>
+        <v>6.745</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.32</v>
+        <v>5.316</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.18</v>
+        <v>0.179</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.28</v>
+        <v>14.276</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.17</v>
+        <v>12.169</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.95</v>
+        <v>4.951</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.05</v>
+        <v>20.047</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.89</v>
+        <v>7.894</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.54</v>
+        <v>3.538</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.18</v>
+        <v>5.185</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.25</v>
+        <v>6.252</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.37</v>
+        <v>6.369</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.78</v>
+        <v>1.778</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.11</v>
+        <v>5.112</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.66</v>
+        <v>7.664</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.34</v>
+        <v>4.345</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.35</v>
+        <v>0.346</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.11</v>
+        <v>0.113</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.55</v>
+        <v>72.55500000000001</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.66</v>
+        <v>14.659</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.98</v>
+        <v>4.975</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.710000000000001</v>
+        <v>9.709</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.04</v>
+        <v>5.044</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.68</v>
+        <v>0.6830000000000001</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.75</v>
+        <v>9.749000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.29</v>
+        <v>4.285</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.63</v>
+        <v>3.631</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.47</v>
+        <v>4.471</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.12</v>
+        <v>6.118</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.35</v>
+        <v>18.348</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.29</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.91</v>
+        <v>5.907</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44904.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>15.88</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>34.21</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>28.57</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>45.45</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>19</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>8.529999999999999</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>12.65</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>14.77</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>17.88</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>10.27</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>181.36</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>34.64</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>11.55</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>23.32</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>12.19</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>22.69</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>10.48</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>14.51</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>41.39</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>6.94</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>14.18</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_223.xlsx
+++ b/DATA_goal/Junction_Flooding_223.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44904.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>6.745</v>
+        <v>6.74</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>5.316</v>
+        <v>5.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.179</v>
+        <v>0.18</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>14.276</v>
+        <v>14.28</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>12.169</v>
+        <v>12.17</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>4.951</v>
+        <v>4.95</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>20.047</v>
+        <v>20.05</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>7.894</v>
+        <v>7.89</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>3.538</v>
+        <v>3.54</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>5.185</v>
+        <v>5.18</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>6.252</v>
+        <v>6.25</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>6.369</v>
+        <v>6.37</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>1.778</v>
+        <v>1.78</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>5.112</v>
+        <v>5.11</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>7.664</v>
+        <v>7.66</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>4.345</v>
+        <v>4.34</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.346</v>
+        <v>0.35</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.113</v>
+        <v>0.11</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>72.55500000000001</v>
+        <v>72.55</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>14.659</v>
+        <v>14.66</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>4.975</v>
+        <v>4.98</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>9.709</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>5.044</v>
+        <v>5.04</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.6830000000000001</v>
+        <v>0.68</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>9.749000000000001</v>
+        <v>9.75</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>4.285</v>
+        <v>4.29</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>3.631</v>
+        <v>3.63</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>4.471</v>
+        <v>4.47</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>6.118</v>
+        <v>6.12</v>
       </c>
       <c r="AE5" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>18.348</v>
+        <v>18.35</v>
       </c>
       <c r="AG5" s="4" t="n">
         <v>3.29</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>5.907</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44904.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>15.88</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>34.21</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>28.57</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>45.45</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>8.529999999999999</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>14.13</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>14.77</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.05</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>17.88</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.37</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.39</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>181.36</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>34.64</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>11.55</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>23.32</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>22.69</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>8.76</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>10.48</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>14.51</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>41.39</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>14.18</v>
+        <v>5.91</v>
       </c>
     </row>
   </sheetData>
